--- a/ephyz/Fitting-Parameter-Ranges.xlsx
+++ b/ephyz/Fitting-Parameter-Ranges.xlsx
@@ -172,21 +172,21 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,669 +471,702 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0.1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>0.1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>0.1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>6.58</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>13.37</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>3.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>11.6</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>0.89</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>5.04</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>150</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>0.1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>0.1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>0.1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
         <v>80</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6">
         <v>80</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <v>10</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>-100</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>-50</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>-100</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>-50</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>-100</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>-30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>-90</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>-50</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>-90</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>-50</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <v>-100</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>-50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
         <v>0.2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.1</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <v>0.1</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.2</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
         <v>0.02</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.02</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>2E-3</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>2E-3</v>
       </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <v>1.6E-2</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <v>1.6E-2</v>
       </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <v>1E-3</v>
       </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>300</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>300</v>
       </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.02</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>0.02</v>
       </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>-40</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>-10</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>-40</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6">
         <v>-10</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <v>-60</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="6">
         <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
         <v>0.13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
         <v>1.6</v>
       </c>
     </row>
